--- a/backend/data/techpowerup_avg_fps.xlsx
+++ b/backend/data/techpowerup_avg_fps.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="raster" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>model</t>
   </si>
@@ -30,6 +30,12 @@
   <si>
     <t xml:space="preserve">Geforce RTX 4070 Super</t>
   </si>
+  <si>
+    <t xml:space="preserve">Arc A750 8Gb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc A770 16Gb</t>
+  </si>
 </sst>
 </file>
 
@@ -37,9 +43,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,17 +59,18 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -609,10 +616,38 @@
         <v>67.5</v>
       </c>
     </row>
+    <row r="3" ht="14.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>92.700000000000003</v>
+      </c>
+      <c r="C3">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="D3">
+        <v>44.600000000000001</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>98.799999999999997</v>
+      </c>
+      <c r="C4">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="D4">
+        <v>48.799999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -624,7 +659,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="20.8515625"/>
   </cols>
@@ -655,6 +690,34 @@
       </c>
       <c r="D2">
         <v>45.130000000000003</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>63.174999999999997</v>
+      </c>
+      <c r="C3">
+        <v>45.887500000000003</v>
+      </c>
+      <c r="D3">
+        <v>23.5625</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>67.887500000000003</v>
+      </c>
+      <c r="C4">
+        <v>49.737499999999997</v>
+      </c>
+      <c r="D4">
+        <v>28.037500000000001</v>
       </c>
     </row>
     <row r="6"/>
@@ -670,7 +733,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/backend/data/techpowerup_avg_fps.xlsx
+++ b/backend/data/techpowerup_avg_fps.xlsx
@@ -1,42 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\code\gpu_prices\backend\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="raster" sheetId="1" r:id="rId1"/>
-    <sheet name="ray_tracing" sheetId="2" r:id="rId2"/>
+    <sheet name="raster" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ray_tracing" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>model</t>
   </si>
   <si>
-    <t>Geforce RTX 4070 Super</t>
-  </si>
-  <si>
-    <t>Arc A750 8Gb</t>
-  </si>
-  <si>
-    <t>Arc A770 16Gb</t>
-  </si>
-  <si>
-    <t>Geforce RTX 3050 6GB</t>
-  </si>
-  <si>
     <t>fhd_ultra</t>
   </si>
   <si>
@@ -46,33 +31,60 @@
     <t>uhd_ultra</t>
   </si>
   <si>
-    <t>Arc B580</t>
+    <t xml:space="preserve">Arc A380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc A580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc A750 8Gb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc A770 16Gb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc B570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc B580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geforce RTX 3050 6GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geforce RTX 4070 Super</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geforce RTX 4070 Ti Super</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geforce RTX 5070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geforce RTX 5070 Ti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geforce RTX 5080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geforce RTX 5090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radeon RX 9070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radeon RX 9070 XT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -86,22 +98,30 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="7">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,8 +139,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -323,215 +626,494 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="22.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>26.800000000000001</v>
+      </c>
+      <c r="C2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>56.799999999999997</v>
+      </c>
+      <c r="D3">
+        <v>33.100000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="3">
+        <v>92.700000000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44.600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>157.6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>118.6</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B5" s="3">
+        <v>98.799999999999997</v>
+      </c>
+      <c r="C5" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="D5" s="3">
+        <v>48.799999999999997</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="C6">
+        <v>53.399999999999999</v>
+      </c>
+      <c r="D6">
+        <v>30.899999999999999</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>82.599999999999994</v>
+      </c>
+      <c r="C7" s="3">
+        <v>61.399999999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42.399999999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30.300000000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>157.59999999999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>118.59999999999999</v>
+      </c>
+      <c r="D9" s="3">
         <v>67.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>92.7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>98.8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="D4" s="2">
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>42.4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>30.3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>82.6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>61.4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>36.200000000000003</v>
+    <row r="10" ht="14.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>166.80000000000001</v>
+      </c>
+      <c r="C10">
+        <v>125.3</v>
+      </c>
+      <c r="D10">
+        <v>72.299999999999997</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>154.59999999999999</v>
+      </c>
+      <c r="C11">
+        <v>114.3</v>
+      </c>
+      <c r="D11">
+        <v>65.799999999999997</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>183.59999999999999</v>
+      </c>
+      <c r="C12">
+        <v>140.5</v>
+      </c>
+      <c r="D12">
+        <v>83.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>202.80000000000001</v>
+      </c>
+      <c r="C13">
+        <v>158.90000000000001</v>
+      </c>
+      <c r="D13">
+        <v>97.299999999999997</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>251.80000000000001</v>
+      </c>
+      <c r="C14">
+        <v>218.69999999999999</v>
+      </c>
+      <c r="D14">
+        <v>147.69999999999999</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>159.59999999999999</v>
+      </c>
+      <c r="C15">
+        <v>132.09999999999999</v>
+      </c>
+      <c r="D15">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>173.90000000000001</v>
+      </c>
+      <c r="C16">
+        <v>119.59999999999999</v>
+      </c>
+      <c r="D16">
+        <v>77.400000000000006</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="23.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>18.129999999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>11.82</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5.7999999999999998</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="3">
+        <v>53.990000000000002</v>
+      </c>
+      <c r="C3" s="3">
+        <v>39.600000000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20.370000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="3">
+        <v>63.18</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45.890000000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>23.559999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>110.08</v>
-      </c>
-      <c r="C2" s="2">
-        <v>83.08</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>63.174999999999997</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45.887500000000003</v>
-      </c>
-      <c r="D3" s="2">
-        <v>23.5625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>67.887500000000003</v>
-      </c>
-      <c r="C4" s="2">
-        <v>49.737499999999997</v>
-      </c>
-      <c r="D4" s="2">
-        <v>28.037500000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>25.6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>17.943844492440604</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8.0733452593917718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>67.890000000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>49.740000000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>28.039999999999999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>73.879194630872476</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44.666666666666664</v>
-      </c>
-      <c r="D6" s="2">
-        <v>17.62890625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="3"/>
-    </row>
+      <c r="B6" s="3">
+        <v>58.170000000000002</v>
+      </c>
+      <c r="C6" s="3">
+        <v>34.359999999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73.879999999999995</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44.670000000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <v>17.629999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>25.600000000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8.0700000000000003</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>110.08</v>
+      </c>
+      <c r="C9" s="3">
+        <v>83.079999999999998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45.130000000000003</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>111.31</v>
+      </c>
+      <c r="C10" s="3">
+        <v>83.400000000000006</v>
+      </c>
+      <c r="D10" s="3">
+        <v>54.240000000000002</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100.28</v>
+      </c>
+      <c r="C11" s="3">
+        <v>73.159999999999997</v>
+      </c>
+      <c r="D11" s="3">
+        <v>40.18</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>121.34</v>
+      </c>
+      <c r="C12" s="3">
+        <v>91.439999999999998</v>
+      </c>
+      <c r="D12" s="3">
+        <v>61.869999999999997</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6">
+        <v>134.37</v>
+      </c>
+      <c r="C13" s="3">
+        <v>103.15000000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>71.519999999999996</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6">
+        <v>184.50999999999999</v>
+      </c>
+      <c r="C14" s="3">
+        <v>149.24000000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>110.09</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>94.349999999999994</v>
+      </c>
+      <c r="C15" s="3">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44.549999999999997</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>104.84</v>
+      </c>
+      <c r="C16" s="3">
+        <v>77.730000000000004</v>
+      </c>
+      <c r="D16" s="3">
+        <v>51.200000000000003</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25"/>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>